--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31512\chenplong.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E347D8-DB5B-486C-A9E2-180B7704E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11CEB1-BC25-4BE6-9F35-3DE7985D4A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7D8DC2EF-C15E-409A-8CF9-BFDC1917EEA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31512\chenplong.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E522565F-401C-4403-9660-E8EAEA1B1129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007BBFAB-7A6B-42B0-8FD7-971802520907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{7D8DC2EF-C15E-409A-8CF9-BFDC1917EEA0}"/>
+    <workbookView xWindow="1530" yWindow="2332" windowWidth="16200" windowHeight="9308" activeTab="2" xr2:uid="{7D8DC2EF-C15E-409A-8CF9-BFDC1917EEA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="COB light" sheetId="1" r:id="rId1"/>
+    <sheet name="bag" sheetId="2" r:id="rId2"/>
+    <sheet name="accessories" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="246">
   <si>
     <t>Product view</t>
   </si>
@@ -550,12 +552,570 @@
 Infrared intelligent remote control light
 .High quality COB lamp beads</t>
   </si>
+  <si>
+    <t>product picture</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>English description</t>
+  </si>
+  <si>
+    <t>Chinese description</t>
+  </si>
+  <si>
+    <t>packing information</t>
+  </si>
+  <si>
+    <t>product description</t>
+  </si>
+  <si>
+    <t>KAZHI Photo KD080-Light Stand Bag</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影KD080-灯架包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :600g
+Individual product packaging
+length：
+breadth：
+Height (thickness):          Size: 80*Φ19.2CM</t>
+  </si>
+  <si>
+    <t>1. Oxford Carry case to protect internal light frame and accessories from scratching and moisture.
+2. The design has sufficient internal space to accommodate various sizes of light stands and related accessories.
+3. It can help users sort and store various devices to keep them in order.
+4. Equipped with a portable belt, providing a variety of ways to carry, easy to transport and move.</t>
+  </si>
+  <si>
+    <t>bxb-1m-njjh</t>
+  </si>
+  <si>
+    <t>KAZHI Photo KD100-Light Stand Kit</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影KD100-灯架包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :0.55
+Individual product packaging
+length：100
+breadth：20
+Height (thickness):           Size: 101*Φ19.2CM</t>
+  </si>
+  <si>
+    <t>bxb-njjh</t>
+  </si>
+  <si>
+    <t>KAZHI Photo KD120-Light Stand Kit</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影KD120-灯架包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :0.68
+Individual product packaging
+length：120
+breadth：30
+Height (thickness):           Size: 120*Φ19.2CM</t>
+  </si>
+  <si>
+    <t>mstb</t>
+  </si>
+  <si>
+    <t>KAZHI Photo Magic Leg Light Stand Bag</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影魔术腿灯架包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :0.75
+Individual product packaging
+length：130
+breadth：25
+Height (thickness):</t>
+  </si>
+  <si>
+    <t>1. Use wear-resistant and waterproof materials to protect the internal light frame and accessories from damage.
+2. Design a suitable interior space that can accommodate standard size magic leg light stands and associated lamps and accessories.
+3. Equipped with a portable belt, convenient for users to choose the way of carrying according to actual needs.</t>
+  </si>
+  <si>
+    <t>syx-stb-hb</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Tote Bag [Red Trim]</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影手提包【红边】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :4.66
+Individual product packaging
+length：54
+breadth：31
+Height (thickness):35</t>
+  </si>
+  <si>
+    <t>1. The distinguishing feature of this handbag is its red edge design, which adds a touch of fashion to a practical camera bag.
+2. The design has a number of dividers and pockets, which can reasonably store camera, lens, battery, memory card and other photography accessories.
+3. With good load-bearing capacity, heavy photographic equipment can be safely carried without causing inclusion damage.</t>
+  </si>
+  <si>
+    <t>syx-CB-01</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Trolley Case</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影手提拉杆箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :7.09
+Individual product packaging
+length：55
+breadth：35
+Height (thickness):52</t>
+  </si>
+  <si>
+    <t>1. It has a strong housing with foam or other buffer material inside to protect the photographic equipment from impact and vibration.
+2. Equipped with retractable pull rod, easy to drag, reduce the burden of handling.
+3. The design has a large interior space that can accommodate multiple cameras, multiple lenses, flash, batteries and other photography accessories.
+4. With strong load-bearing capacity, it can withstand heavy photographic equipment and long-distance transportation.</t>
+  </si>
+  <si>
+    <t>syx-stk</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Tote Bag</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影手提包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) ：5.69
+Individual product packaging
+length：55
+breadth：33
+Height (thickness):48</t>
+  </si>
+  <si>
+    <t>1. Designed with multiple dividers and pockets, you can store camera, lens, battery, memory card and other photography accessories according to your needs.
+2. With a certain load-bearing capacity, it can safely carry photographic equipment to avoid damage to the inclusion body.
+3. The size is moderate, easy to carry, and can meet the basic equipment loading needs for daily shooting.
+4. Suitable for daily travel, travel photography, street photography and other occasions that require lightweight equipment.</t>
+  </si>
+  <si>
+    <t>KC018</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Lighting Kit Trolley Case [KC018 Small</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影灯具套装拉杆箱【KC018小号】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :6
+Individual product packaging
+length：85
+breadth：30
+Height (thickness):29</t>
+  </si>
+  <si>
+    <t>1. The box size is 85×30×29cm, and the loading size is 74×24×20cm.
+2. Thickened Oxford material with foam filler inside to protect the luminaire from impact and vibration.
+3. With retractable rod and roller, easy to move and transport, save energy.
+4. The interior design has a special compartment, which can be appropriately placed and fixed according to the size of the lamps and accessories.
+5. Suitable for going out to shoot, travel photography, news interviews and other occasions that need to carry lamps and equipment.</t>
+  </si>
+  <si>
+    <t>KC015</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Lighting Kit Trolley Case [KC015 Medium</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影灯具套装拉杆箱【KC015中号】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :16
+Individual product packaging
+length：95
+breadth：43
+Height (thickness):33</t>
+  </si>
+  <si>
+    <t>1. The box size is 95×43×33cm, and the loading size is 85×35×26cm.
+2. Thickened Oxford material with foam filler inside to protect the luminaire from impact and vibration.
+3. With retractable rod and roller, easy to move and transport, save energy.
+4. The interior design has a special compartment, which can be appropriately placed and fixed according to the size of the lamps and accessories.
+5. Suitable for going out to shoot, travel photography, news interviews and other occasions that need to carry lamps and equipment.</t>
+  </si>
+  <si>
+    <t>KC006</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Lighting Kit Trolley Case [KC006 Large</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影灯具套装拉杆箱【KC006大号】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :16
+Individual product packaging
+length：113
+breadth：38
+Height (thickness):30</t>
+  </si>
+  <si>
+    <t>1. The box size is 113×38×30cm, and the loading size is 101×33×26cm.
+2. Thickened Oxford material with foam filler inside to protect the luminaire from impact and vibration.
+3. With retractable rod and roller, easy to move and transport, save energy.
+4. The interior design has a special compartment, which can be appropriately placed and fixed according to the size of the lamps and accessories.
+5. Suitable for going out to shoot, travel photography, news interviews and other occasions that need to carry lamps and equipment.</t>
+  </si>
+  <si>
+    <t>KC002</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Lighting Kit Trolley Case [KC002 Extra Large</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影灯具套装拉杆箱【KC002特大号】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :16
+Individual product packaging
+length：133
+breadth：39
+Height (thickness):31</t>
+  </si>
+  <si>
+    <t>1. The box size is 133×39×31cm, and the loading size is 126×33×26cm.
+2. Thickened Oxford material with foam filler inside to protect the luminaire from impact and vibration.
+3. With retractable rod and roller, easy to move and transport, save energy.
+4. The interior design has a special compartment, which can be appropriately placed and fixed according to the size of the lamps and accessories.
+5. Suitable for going out to shoot, travel photography, news interviews and other occasions that need to carry lamps and equipment.</t>
+  </si>
+  <si>
+    <t>KY-CC06</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Lighting Kit Trolley Case [Orange Edge Large</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影灯具套装拉杆箱【橙边大号】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :9kg
+Individual product packaging
+length：104
+breadth：41
+Height (thickness):32</t>
+  </si>
+  <si>
+    <t>1. The box size is 103×40×30cm, and the loading size is 92×34×29cm.
+2. Thickened Oxford material with foam filler inside to protect the luminaire from impact and vibration.
+3. With retractable rod and roller, easy to move and transport, save energy.
+4. The interior design has a special compartment, which can be appropriately placed and fixed according to the size of the lamps and accessories.
+5. Suitable for going out to shoot, travel photography, news interviews and other occasions that need to carry lamps and equipment.</t>
+  </si>
+  <si>
+    <t>KR006</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Lighting Kit Trolley Case [Red Side Small</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影灯具套装拉杆箱【红边小号】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Single weight (including material) :6
+Individual product packaging
+length：85
+breadth：30
+Height (thickness):30</t>
+  </si>
+  <si>
+    <t>1. The box size is 85×29×29cm, and the loading size is 74×24×25cm.
+2. Thickened Oxford material with foam filler inside to protect the luminaire from impact and vibration.
+3. With retractable rod and roller, easy to move and transport, save energy.
+4. The interior design has a special compartment, which can be appropriately placed and fixed according to the size of the lamps and accessories.
+5. Suitable for going out to shoot, travel photography, news interviews and other occasions that need to carry lamps and equipment.</t>
+  </si>
+  <si>
+    <t>CS-003</t>
+  </si>
+  <si>
+    <t>Special C Stand Set (3 sets)</t>
+  </si>
+  <si>
+    <t>专用魔术腿架体套装包（装三套）</t>
+  </si>
+  <si>
+    <t>Single weight (including material) :13kg
+Individual product packaging
+length：132
+breadth：35
+Height (thickness):29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durable material: The use of high-strength waterproof, shock-proof materials, such as nylon, polyester fiber or hard plastic, to ensure that the box is durable and suitable for various shooting environments.
+2. Multi-functional design: the interior has adjustable compartments or Velcro partitions, flexible to adapt to different sizes of light stands and magic legs, easy to classify and store.
+3. Portability: Equipped with comfortable handle and shoulder strap, some models with pulley, easy to move and transport.
+4. Protective performance: Lined with shock-resistant foam or sponge to effectively cushion the impact and protect the equipment from collision and scratching.
+5. Large capacity: reasonable design, can accommodate multiple light stands, magic legs and related accessories, suitable for professional photographers and teams.
+6. Waterproof and dustproof: Some models have waterproof and dustproof function, suitable for outdoor shooting.
+7. Safety lock: equipped with a strong lock to ensure that the box will not be accidentally opened during transportation, some models can also be locked to enhance security.
+8. Lightweight design: under the premise of ensuring strength, reduce weight as much as possible and make it easy to carry.
+</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Solar lighting bag</t>
+  </si>
+  <si>
+    <t>太阳灯具包</t>
+  </si>
+  <si>
+    <t>Single weight (including material) :4
+Individual product packaging
+length：58
+breadth：21
+Height (thickness):19</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>sd-twb</t>
+  </si>
+  <si>
+    <t>KAZHI Balance bearing sandbag 【 Striped blue 】</t>
+  </si>
+  <si>
+    <t>KAZHI 平衡承重沙袋【条纹蓝】</t>
+  </si>
+  <si>
+    <t>weight bearing sandbag</t>
+  </si>
+  <si>
+    <t>1. Nylon material, weight 218g, size 52×25cm.
+2. It has a certain load-bearing capacity and can light stand or other photographic equipment. 25*15*2cm</t>
+  </si>
+  <si>
+    <t>sd-two</t>
+  </si>
+  <si>
+    <t>KAZHI Balance load bearing Sandbag 【 Striped Orange 】</t>
+  </si>
+  <si>
+    <t>KAZHI 平衡承重沙袋【条纹橙】</t>
+  </si>
+  <si>
+    <t>Black weight bearing sandbag</t>
+  </si>
+  <si>
+    <t>phsd-hei</t>
+  </si>
+  <si>
+    <t>KAZHI Balance Load-bearing Sandbag [Black</t>
+  </si>
+  <si>
+    <t>KAZHI 平衡承重沙袋【黑色】</t>
+  </si>
+  <si>
+    <t>FM-B</t>
+  </si>
+  <si>
+    <t>FM to Bowens adapter ring</t>
+  </si>
+  <si>
+    <t>FM转保荣卡口转接环</t>
+  </si>
+  <si>
+    <t>Black FM to Bowens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayonet conversion: Its main role is to connect the photography equipment of the FM bayonet with accessories or lamps of the Baorong Bayonet to achieve compatibility between different bayonet devices, so that users can use all kinds of photography accessories of the Baorong Bayonet on the camera or flash and other equipment of the FM bayonet.
+Expand the scope of accessories: Paorong bayonet has a wide variety of photographic accessories, such as soft box, beam cylinder, reflector, etc. By using the FM bayonet adapter ring, users of FM bayonet equipment can greatly expand the range of accessories available to meet different shooting needs and creative expression, and obtain more diverse light and shadow effects.
+</t>
+  </si>
+  <si>
+    <t>dlj-4c</t>
+  </si>
+  <si>
+    <t>KAZHI Photography 4’ Power Clip</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影4寸大力夹</t>
+  </si>
+  <si>
+    <t>Photography 4 "power clip</t>
+  </si>
+  <si>
+    <t>1. Weight 0.1kg, size 116×24×89cm.
+2. Strong spring design, more firm, suitable for a wide range of scenes.
+3. Add anti-slip teeth, not easy to fall off.
+4. The maximum clamping thickness is 50mm. 9*11*10cm</t>
+  </si>
+  <si>
+    <t>dlj</t>
+  </si>
+  <si>
+    <t>KAZHI Photo Metal Power Clip</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影金属大力夹</t>
+  </si>
+  <si>
+    <t>Metal clip for photography</t>
+  </si>
+  <si>
+    <t>1. Weight 0.1kg, size 110×80×70cm.
+2. Strong spring design, more firm, suitable for a wide range of scenes.
+3. Add non-slip plastic, fixed firmly and do not fall off.
+4. Maximum clamping thickness 72mm.  10*8*7cm</t>
+  </si>
+  <si>
+    <t>jl-bxg-75mm</t>
+  </si>
+  <si>
+    <t>KAZHI Photography Magic Leg Casters 75mm</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影魔术腿款脚轮 75mm</t>
+  </si>
+  <si>
+    <t>Magic leg casters 75mm</t>
+  </si>
+  <si>
+    <t>1. All metal material, weight 0.5kg.
+2. Diameter 75mm, hole diameter 24mm.
+2. Press brake, lift up to unlock, press down to lock.
+3. Adjustable 360 degrees.
+4. Wear-resistant PU pulley, free movement is not afraid of grinding.
+5. Thickened metal pipe arm, more firm and durable. 20*10*13cm</t>
+  </si>
+  <si>
+    <t>jl-dj-75mm</t>
+  </si>
+  <si>
+    <t>KAZHI Photo Stand Casters [75mm</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影支架脚轮【75mm】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light frame 75mm
+</t>
+  </si>
+  <si>
+    <t>1. All metal material, weight 0.45kg.
+2. Diameter 75mm, hole diameter 22mm.
+2. Press brake, lift up to unlock, press down to lock.
+3. Adjustable 360 degrees.
+4. Thickened metal pipe arm, more firm and durable. 10*13*16cm</t>
+  </si>
+  <si>
+    <t>jl-dj-50mm</t>
+  </si>
+  <si>
+    <t>KAZHI Photo Stand Casters [50mm</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影支架脚轮【50mm】</t>
+  </si>
+  <si>
+    <t>Light frame 50mm</t>
+  </si>
+  <si>
+    <t>1. All metal material, weight 0.25kg.
+2. Diameter 50mm, hole diameter 22mm.
+2. Press brake, lift up to unlock, press down to lock.
+3. Adjustable 360 degrees.
+4. Thickened metal pipe arm, more firm and durable.16*13*10cm</t>
+  </si>
+  <si>
+    <t>wxl</t>
+  </si>
+  <si>
+    <t>KAZHI Photo Metal Casters</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影金属万向轮</t>
+  </si>
+  <si>
+    <t>Metal universal wheel</t>
+  </si>
+  <si>
+    <t>1. Aluminum alloy material, net weight 0.65kg, aperture size 4/11/15/16mm.
+2. The universal wheel design allows the wheels to rotate freely in multiple directions, facilitating the flexible movement and positioning of the equipment.
+3. It has a high load-bearing capacity and can withstand the corresponding weight and pressure.
+4. It is suitable for all photographic light frames, which can be used for ceiling lights, cameras, horizontal poles, ceiling screens, accessories, etc. size:17*8*7cm  weight:0.54kg</t>
+  </si>
+  <si>
+    <t>hg-128</t>
+  </si>
+  <si>
+    <t>KAZHI Photography 128cm Metal Crossbar</t>
+  </si>
+  <si>
+    <t>KAZHI 摄影128cm金属横杆</t>
+  </si>
+  <si>
+    <t>128cm single cross bar</t>
+  </si>
+  <si>
+    <t>1. Stainless steel, with good strength and corrosion resistance.
+2. The length of the bar is 128 cm, which is suitable for building various support systems.
+3. Single rod design, simple and practical, easy to use with other support accessories.
+4. Have a certain load-bearing capacity. size:128*2*2cm  weight:0.5kg</t>
+  </si>
+  <si>
+    <t>pbd-djpjt</t>
+  </si>
+  <si>
+    <t>KAZHI Lighting Base Adaptor</t>
+  </si>
+  <si>
+    <t>KAZHI 灯光底座转接头</t>
+  </si>
+  <si>
+    <t>Light base adapter</t>
+  </si>
+  <si>
+    <t>1. Suitable for film and television lamps with U-frame.
+2. The U-shaped frame of the lamp has only holes, and it is necessary to add a connection head to link the telescopic boom or the floor light frame.
+3. International M10 screws, suitable for 10-13mm aperture.
+4. The height of the column is 52mm, the diameter of the bottom hole is 16.5mm, the outer diameter is 27mm, and the handle is nylon. 0.14kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,8 +1168,81 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,8 +1261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -689,13 +1328,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +1502,183 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE607D4-F8C9-4C9F-BF65-306FB3490368}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1767,4 +2696,788 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89A72C9-31C6-4120-95DD-E8ECD2902317}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="70.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7">
+        <v>6.94</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="22">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7">
+        <v>55</v>
+      </c>
+      <c r="F3" s="7">
+        <v>7.64</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="22">
+        <v>4</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="7">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8.33</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="22">
+        <v>5</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="7">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="22">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="7">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7">
+        <v>23.61</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="22">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="7">
+        <v>295</v>
+      </c>
+      <c r="F7" s="7">
+        <v>40.97</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="22">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="7">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7">
+        <v>30.56</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="22">
+        <v>9</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="7">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7">
+        <v>25.69</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="7">
+        <v>255</v>
+      </c>
+      <c r="F10" s="7">
+        <v>35.42</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="22">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="7">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7">
+        <v>36.81</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="22">
+        <v>12</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="7">
+        <v>325</v>
+      </c>
+      <c r="F12" s="7">
+        <v>45.14</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="22">
+        <v>13</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="7">
+        <v>270</v>
+      </c>
+      <c r="F13" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="29">
+        <v>14</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="31">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7">
+        <v>25.69</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="22">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="34">
+        <v>325</v>
+      </c>
+      <c r="F15" s="7">
+        <v>45.14</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="22">
+        <v>16</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="34">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20.14</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A251462-AB3F-43D7-B68A-278418C1D5E9}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="70.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="297" x14ac:dyDescent="0.4">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="7">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="297" x14ac:dyDescent="0.4">
+      <c r="A3" s="40">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="7">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="277.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="49">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4.17</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="346.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="55">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="360.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="55">
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="61">
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7">
+        <v>125</v>
+      </c>
+      <c r="G8" s="7">
+        <v>17.36</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="7">
+        <v>85</v>
+      </c>
+      <c r="G9" s="7">
+        <v>11.81</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="61">
+        <v>9</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7">
+        <v>75</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10.42</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="62">
+        <v>10</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7">
+        <v>35</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="62">
+        <v>11</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="7">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4.17</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="7">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31512\chenplong.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007BBFAB-7A6B-42B0-8FD7-971802520907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC9758-E69A-4787-8ECB-A90639FED139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="2332" windowWidth="16200" windowHeight="9308" activeTab="2" xr2:uid="{7D8DC2EF-C15E-409A-8CF9-BFDC1917EEA0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{7D8DC2EF-C15E-409A-8CF9-BFDC1917EEA0}"/>
   </bookViews>
   <sheets>
     <sheet name="COB light" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="236">
   <si>
     <t>Product view</t>
   </si>
@@ -79,17 +79,6 @@
     <t>KAZHI KL150双色温影视灯</t>
   </si>
   <si>
-    <t>1. Product name: KL-150/200/300/500W
-2. Maximum power: 160w/210/320/510W
-3. Color temperature: 2700-6500k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% non-polar dimming
-6. Output voltage: AC175-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode: lamp body control /APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.33-5.87KG</t>
-  </si>
-  <si>
     <t>KZ-Xl200</t>
   </si>
   <si>
@@ -99,17 +88,6 @@
     <t>KAZHI KL200白光影视灯</t>
   </si>
   <si>
-    <t>1. Product name: KL-150/200/300/500W
-2. Maximum power: 160w/210/320/510W
-3. Color temperature: 2700-6500k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% non-polar dimming
-6. Output voltage: AC175-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode: lamp body control /APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.33-5.88KG</t>
-  </si>
-  <si>
     <t>KZ-Xl200bi</t>
   </si>
   <si>
@@ -119,17 +97,6 @@
     <t>KAZHI KL200双色温影视灯</t>
   </si>
   <si>
-    <t>1. Product name: KL-150/200/300/500W
-2. Maximum power: 160w/210/320/510W
-3. Color temperature: 2700-6500k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% non-polar dimming
-6. Output voltage: AC175-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode: lamp body control /APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.33-5.89KG</t>
-  </si>
-  <si>
     <t>KZ-Xl300</t>
   </si>
   <si>
@@ -139,17 +106,6 @@
     <t>KAZHI KL300白光影视灯</t>
   </si>
   <si>
-    <t>1. Product name: KL-150/200/300/500W
-2. Maximum power: 160w/210/320/510W
-3. Color temperature: 2700-6500k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% non-polar dimming
-6. Output voltage: AC175-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode: lamp body control /APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.33-5.90KG</t>
-  </si>
-  <si>
     <t>KZ-Xl300BI</t>
   </si>
   <si>
@@ -159,17 +115,6 @@
     <t>KAZHI KL300双色温影视灯</t>
   </si>
   <si>
-    <t>1. Product name: KL-150/200/300/500W
-2. Maximum power: 160w/210/320/510W
-3. Color temperature: 2700-6500k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% non-polar dimming
-6. Output voltage: AC175-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode: lamp body control /APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.33-5.91KG</t>
-  </si>
-  <si>
     <t>KZ-Xl500BI</t>
   </si>
   <si>
@@ -177,17 +122,6 @@
   </si>
   <si>
     <t>KAZHI KL500双色温影视灯</t>
-  </si>
-  <si>
-    <t>1. Product name: KL-150/200/300/500W
-2. Maximum power: 160w/210/320/510W
-3. Color temperature: 2700-6500k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% non-polar dimming
-6. Output voltage: AC175-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode: lamp body control /APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.33-5.92KG</t>
   </si>
   <si>
     <t>KZ-bf650</t>
@@ -245,17 +179,6 @@
     <t>KAZHI NL260双色温影视灯</t>
   </si>
   <si>
-    <t>Color temperature: 2700K-6500K
-Full spectrum COB low blue light
-Stable light source, high brightness
-High color rendering &gt;98
-.Efficient heat dissipation
-.LED display
-.APP mobile wireless control
-. Silent fan
-Metal case</t>
-  </si>
-  <si>
     <t>NL360B</t>
   </si>
   <si>
@@ -263,17 +186,6 @@
   </si>
   <si>
     <t>KAZHI NL360双色温影视灯</t>
-  </si>
-  <si>
-    <t>Color temperature: 2700K-6500K
-Full spectrum COB low blue light
-Stable light source, high brightness
-High color rendering &gt;99
-.Efficient heat dissipation
-.LED display
-.APP mobile wireless control
-. Silent fan
-Metal case</t>
   </si>
   <si>
     <t>WL600B</t>
@@ -326,17 +238,6 @@
     <t>KAZHI 300X双色温标配</t>
   </si>
   <si>
-    <t>1. Product name: BS-200/300/220RGB
-2. Maximum power: 200w/300/220WRGB
-3. Color temperature: 5600k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% 
-6. Output voltage: AC100-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode:APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.36KG</t>
-  </si>
-  <si>
     <t>BF-220C</t>
   </si>
   <si>
@@ -344,17 +245,6 @@
   </si>
   <si>
     <t>KAZHI 220c全彩标配RGB</t>
-  </si>
-  <si>
-    <t>1. Product name: BS-200/300/220RGB
-2. Maximum power: 200w/300/220WRGB
-3. Color temperature: 5600k
-4. Color rendering index: TLCI98 CRI97
-5. Dimming range: 0-100% 
-6. Output voltage: AC100-240V 50/60HZ
-7. Luminous flux: 17200LM
-8. Control mode:APP control
-9. Interface attributes: Baorong universal bayonet   10.SIZE:50*26*23cm  weight:3.37KG</t>
   </si>
   <si>
     <t>KZ-G230</t>
@@ -1996,11 +1886,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE607D4-F8C9-4C9F-BF65-306FB3490368}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="83.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="88.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -2048,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2068,21 +1961,21 @@
         <v>47.22</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="7">
         <v>370</v>
@@ -2091,21 +1984,21 @@
         <v>51.39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="7">
         <v>430</v>
@@ -2114,21 +2007,21 @@
         <v>59.72</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7">
         <v>425</v>
@@ -2137,21 +2030,21 @@
         <v>59.03</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7">
         <v>535</v>
@@ -2160,21 +2053,21 @@
         <v>74.31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7">
         <v>880</v>
@@ -2183,7 +2076,7 @@
         <v>122.22</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2191,13 +2084,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7">
         <v>1400</v>
@@ -2206,7 +2099,7 @@
         <v>194.44</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2214,13 +2107,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7">
         <v>570</v>
@@ -2229,21 +2122,21 @@
         <v>79.17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" s="7">
         <v>700</v>
@@ -2252,21 +2145,21 @@
         <v>97.22</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7">
         <v>800</v>
@@ -2275,7 +2168,7 @@
         <v>111.11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2283,13 +2176,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7">
         <v>1400</v>
@@ -2298,7 +2191,7 @@
         <v>194.44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2306,13 +2199,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7">
         <v>580</v>
@@ -2321,21 +2214,21 @@
         <v>80.56</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7">
         <v>680</v>
@@ -2344,21 +2237,21 @@
         <v>94.44</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="124.9" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7">
         <v>750</v>
@@ -2367,7 +2260,7 @@
         <v>104.17</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2375,13 +2268,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7">
         <v>348</v>
@@ -2390,21 +2283,21 @@
         <v>48.33</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7">
         <v>415</v>
@@ -2413,7 +2306,7 @@
         <v>57.64</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2421,13 +2314,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E19" s="7">
         <v>278</v>
@@ -2436,21 +2329,21 @@
         <v>38.61</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7">
         <v>348</v>
@@ -2459,7 +2352,7 @@
         <v>48.33</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2467,13 +2360,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7">
         <v>350</v>
@@ -2482,7 +2375,7 @@
         <v>48.61</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2490,13 +2383,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E22" s="7">
         <v>430</v>
@@ -2505,21 +2398,21 @@
         <v>59.72</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>9</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E23" s="7">
         <v>470</v>
@@ -2528,21 +2421,21 @@
         <v>65.28</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <v>9</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E24" s="7">
         <v>370</v>
@@ -2551,21 +2444,21 @@
         <v>51.39</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <v>9</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E25" s="7">
         <v>470</v>
@@ -2574,7 +2467,7 @@
         <v>65.28</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2582,13 +2475,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E26" s="7">
         <v>218</v>
@@ -2597,21 +2490,21 @@
         <v>30.28</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
         <v>10</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E27" s="7">
         <v>258</v>
@@ -2620,7 +2513,7 @@
         <v>35.83</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2628,13 +2521,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E28" s="7">
         <v>230</v>
@@ -2643,21 +2536,21 @@
         <v>31.94</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="111" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E29" s="7">
         <v>250</v>
@@ -2666,7 +2559,7 @@
         <v>34.72</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.4">
@@ -2674,13 +2567,13 @@
         <v>12</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E30" s="13">
         <v>215</v>
@@ -2689,7 +2582,7 @@
         <v>29.86</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2702,24 +2595,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89A72C9-31C6-4120-95DD-E8ECD2902317}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="62.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="70.5" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -2728,10 +2624,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2740,10 +2636,10 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E2" s="7">
         <v>50</v>
@@ -2752,10 +2648,10 @@
         <v>6.94</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2763,13 +2659,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E3" s="7">
         <v>55</v>
@@ -2778,10 +2674,10 @@
         <v>7.64</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2789,13 +2685,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E4" s="7">
         <v>60</v>
@@ -2804,10 +2700,10 @@
         <v>8.33</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2815,13 +2711,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E5" s="7">
         <v>65</v>
@@ -2830,10 +2726,10 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2841,13 +2737,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E6" s="7">
         <v>170</v>
@@ -2856,10 +2752,10 @@
         <v>23.61</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2867,13 +2763,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E7" s="7">
         <v>295</v>
@@ -2882,10 +2778,10 @@
         <v>40.97</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2893,13 +2789,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E8" s="7">
         <v>220</v>
@@ -2908,10 +2804,10 @@
         <v>30.56</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2919,13 +2815,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E9" s="7">
         <v>185</v>
@@ -2934,10 +2830,10 @@
         <v>25.69</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2945,13 +2841,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E10" s="7">
         <v>255</v>
@@ -2960,10 +2856,10 @@
         <v>35.42</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2971,13 +2867,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E11" s="7">
         <v>265</v>
@@ -2986,10 +2882,10 @@
         <v>36.81</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -2997,13 +2893,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E12" s="7">
         <v>325</v>
@@ -3012,10 +2908,10 @@
         <v>45.14</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3023,13 +2919,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E13" s="7">
         <v>270</v>
@@ -3038,10 +2934,10 @@
         <v>37.5</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3049,13 +2945,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E14" s="31">
         <v>185</v>
@@ -3064,10 +2960,10 @@
         <v>25.69</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3075,13 +2971,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E15" s="34">
         <v>325</v>
@@ -3090,10 +2986,10 @@
         <v>45.14</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3101,13 +2997,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E16" s="34">
         <v>145</v>
@@ -3116,10 +3012,10 @@
         <v>20.14</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3132,27 +3028,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A251462-AB3F-43D7-B68A-278418C1D5E9}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="64.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="70.5" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -3161,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="297" x14ac:dyDescent="0.4">
@@ -3169,16 +3068,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F2" s="7">
         <v>12</v>
@@ -3187,7 +3086,7 @@
         <v>1.67</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="297" x14ac:dyDescent="0.4">
@@ -3195,16 +3094,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F3" s="7">
         <v>12</v>
@@ -3213,7 +3112,7 @@
         <v>1.67</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="277.5" x14ac:dyDescent="0.4">
@@ -3221,16 +3120,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7">
         <v>7.2</v>
@@ -3239,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3247,16 +3146,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7">
         <v>30</v>
@@ -3265,7 +3164,7 @@
         <v>4.17</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="346.9" x14ac:dyDescent="0.4">
@@ -3273,16 +3172,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7">
         <v>1.5</v>
@@ -3291,7 +3190,7 @@
         <v>0.21</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="360.75" x14ac:dyDescent="0.4">
@@ -3299,16 +3198,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7">
         <v>4.5</v>
@@ -3317,7 +3216,7 @@
         <v>0.63</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3325,16 +3224,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7">
         <v>125</v>
@@ -3343,7 +3242,7 @@
         <v>17.36</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3351,16 +3250,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7">
         <v>85</v>
@@ -3369,7 +3268,7 @@
         <v>11.81</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3377,16 +3276,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7">
         <v>75</v>
@@ -3395,7 +3294,7 @@
         <v>10.42</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3403,16 +3302,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7">
         <v>35</v>
@@ -3421,7 +3320,7 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3429,16 +3328,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7">
         <v>30</v>
@@ -3447,7 +3346,7 @@
         <v>4.17</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.4">
@@ -3455,16 +3354,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7">
         <v>18</v>
@@ -3473,7 +3372,7 @@
         <v>2.5</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
